--- a/data/cook-menu.xlsx
+++ b/data/cook-menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhihua/gitee/public-data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F815B83-85EF-4148-AC6A-BFD3DA23D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F5D52-3C37-5C4C-8DF0-17AB6D6459B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
   <si>
     <t>name</t>
   </si>
@@ -2310,406 +2310,6 @@
   </si>
   <si>
     <t>炒茄子</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>今天解锁了茄子の神仙吃法！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>💥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">软糯入味秒杀外卖！每次端上桌都被秒光！！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（附零失败教程+少油不黑秘诀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【3步搞定销魂茄子煲】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>1️⃣🍆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">茄子滚刀切块 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>➕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1勺盐腌10分钟
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（杀出水分！这是不吸油的关键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>💦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>2️⃣🧄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">爆香蒜末小米辣 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>➕</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">茄子大火翻炒
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（油只要平时炒菜量！腌过的茄子超听话</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>3️⃣🔥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">灵魂酱汁：2生抽+1老抽+1蚝油+半勺糖
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（倒进去咕嘟3分钟！香到邻居来敲门</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>🤤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>💡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">小贴士：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▫️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">用紫色长茄子更软嫩！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▫️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">加勺豆瓣酱秒变鱼香茄子！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▫️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>撒葱花芝麻颜值翻倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>🍆三步骤茄子煲！怒干三碗饭🔥</t>
   </si>
   <si>
     <t>青椒土豆丝</t>
@@ -6861,868 +6461,6 @@
         <charset val="134"/>
       </rPr>
       <t>刚出锅的滑蛋会呼吸！趁热吃才是对它的尊重～</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宝子们！今天教你们解锁茄子最销魂的吃法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>‼️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不用油炸！不加一滴水！软糯入味到尖叫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>🤯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>附赠让茄子不氧化发黑的厨房玄学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>㊙️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【食材准备】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">紫皮茄子2根｜蒜末3勺｜小米辣2根｜葱花1把
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">生抽2勺｜蚝油1勺｜白糖半勺｜淀粉1勺
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>💡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【关键步骤】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>1️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>茄子切滚刀块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>撒2勺盐腌10分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>‼️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（这是不吸油的关键！会杀出超多紫色汁水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>💦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>2️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>清水冲洗3遍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挤干到能当毛巾拧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>🌪️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（像拧海绵一样挤！越干越能吸汤汁）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>3️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调灵魂酱汁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>🥣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">2勺生抽+1勺蚝油+半勺糖+1勺淀粉+半碗水
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（淀粉水是让汤汁挂满茄子的精髓！）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>🔥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【开火表演时间】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>1️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冷锅热油爆香蒜末小米辣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>🌶️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（油只要平时炒菜量！茄子已经不吸油啦）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>2️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倒入茄子大火翻炒2分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">淋酱汁
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（这时会听到滋啦滋啦的治愈声音！）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>3️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转中火焖1分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">撒葱花疯狂翻炒
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">（汤汁会像果冻一样裹住每块茄子！）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>💜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【玄学彩蛋】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▪️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">紫色茄子比绿色更不容易氧化！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▪️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全程不盖锅盖！颜色亮到反光</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▪️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出锅前淋半勺香醋</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">层次感原地起飞
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>💡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">进阶吃法：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▫️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拌米饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">直接电饭煲端走！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▫️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加肉沫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">变身豪华版地三鲜
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>▫️</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放冰箱冷藏</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Apple Color Emoji"/>
-      </rPr>
-      <t>👉🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="DengXian"/>
-        <family val="4"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">夏日凉菜Top1
-</t>
     </r>
   </si>
   <si>
@@ -24882,6 +23620,660 @@
         <rFont val="Apple Color Emoji"/>
       </rPr>
       <t>🔥</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝子们！今天教你们解锁茄子最销魂的吃法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>‼️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+不用油炸！不加一滴水！软糯入味到尖叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>🤯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+附赠让茄子不氧化发黑的厨房玄学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>㊙️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">【食材准备】
+紫皮茄子2根｜蒜末3勺｜小米辣2根｜葱花1把
+生抽2勺｜蚝油1勺｜白糖半勺｜淀粉1勺
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">【关键步骤】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>茄子切滚刀块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>撒2勺盐腌10分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>‼️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（这是不吸油的关键！会杀出超多紫色汁水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>💦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>清水冲洗3遍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挤干到能当毛巾拧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>🌪️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（像拧海绵一样挤！越干越能吸汤汁）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调灵魂酱汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>🥣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">：
+2勺生抽+1勺蚝油+半勺糖+1勺淀粉+半碗水
+（淀粉水是让汤汁挂满茄子的精髓！）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">【开火表演时间】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷锅热油爆香蒜末小米辣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>🌶️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+（油只要平时炒菜量！茄子已经不吸油啦）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒入茄子大火翻炒2分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">淋酱汁
+（这时会听到滋啦滋啦的治愈声音！）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转中火焖1分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">撒葱花疯狂翻炒
+（汤汁会像果冻一样裹住每块茄子！）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>💜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">【玄学彩蛋】
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>▪️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">紫色茄子比绿色更不容易氧化！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>▪️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全程不盖锅盖！颜色亮到反光</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>▪️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出锅前淋半勺香醋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">层次感原地起飞
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">进阶吃法：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>▫️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拌米饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">直接电饭煲端走！
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>▫️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加肉沫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">变身豪华版地三鲜
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>▫️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放冰箱冷藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Apple Color Emoji"/>
+      </rPr>
+      <t>👉🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">夏日凉菜Top1
+</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -26138,10 +25530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -26174,7 +25566,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -26187,7 +25579,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -26200,20 +25592,20 @@
         <v>8</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -26226,7 +25618,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -26239,7 +25631,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -26252,7 +25644,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -26265,7 +25657,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -26278,7 +25670,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -26291,33 +25683,33 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>303</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -26433,21 +25825,21 @@
       <c r="B22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>53</v>
+      <c r="C22" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>306</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -26667,21 +26059,21 @@
       <c r="B40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>106</v>
+      <c r="C40" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1">
       <c r="A41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>304</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -26855,41 +26247,41 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="25.5" customHeight="1">
+    <row r="55" spans="1:5" ht="34" customHeight="1">
       <c r="A55" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>150</v>
+      <c r="C55" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="34" customHeight="1">
+    <row r="56" spans="1:5" ht="25.5" customHeight="1">
       <c r="A56" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="C56" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="25.5" customHeight="1">
       <c r="A57" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -26966,21 +26358,21 @@
       <c r="B63" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>172</v>
+      <c r="C63" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="25.5" customHeight="1">
       <c r="A64" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>308</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -27327,60 +26719,60 @@
       <c r="A91" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="25.5" customHeight="1">
       <c r="A92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="25.5" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>259</v>
+        <v>287</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="25.5" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>309</v>
+        <v>286</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="25.5" customHeight="1">
       <c r="A95" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>262</v>
@@ -27392,118 +26784,105 @@
       <c r="A96" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="25.5" customHeight="1">
       <c r="A97" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>266</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>267</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="25.5" customHeight="1">
       <c r="A98" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>268</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>269</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="25.5" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="25.5" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>310</v>
+        <v>281</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="25.5" customHeight="1">
       <c r="A101" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="25.5" customHeight="1">
       <c r="A102" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>276</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="25.5" customHeight="1">
       <c r="A103" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/data/cook-menu.xlsx
+++ b/data/cook-menu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhihua/gitee/public-data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhihua/github/public-resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07F5D52-3C37-5C4C-8DF0-17AB6D6459B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A63DE-3AEA-3C42-8059-94A601A081E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>name</t>
   </si>
@@ -23151,6 +23151,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>糖醋鸡排一口爆汁！外酥里嫩绝了</t>
     </r>
@@ -23178,6 +23179,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>馋哭小孩糖醋排骨！零失败</t>
     </r>
@@ -23194,6 +23196,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>手残党福音</t>
     </r>
@@ -23221,6 +23224,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>5分钟馋哭全家的青椒土豆丝</t>
     </r>
@@ -23248,6 +23252,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>10分钟复刻川菜馆干锅花菜</t>
     </r>
@@ -23275,6 +23280,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>菠菜鸡蛋神仙吃法！5分钟低卡高蛋白</t>
     </r>
@@ -23294,6 +23300,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>5分钟蚝油生菜！脆嫩爆汁减脂秘诀</t>
     </r>
@@ -23321,6 +23328,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>拔丝土豆终极秘诀！3步拉丝到银河</t>
     </r>
@@ -23348,6 +23356,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>酸辣包菜鸡蛋粉丝｜10分钟开胃下饭</t>
     </r>
@@ -23375,6 +23384,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>滑蛋终极秘诀！嫩到流泪黄金比例</t>
     </r>
@@ -23402,6 +23412,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>5分钟不吸油！销魂茄子秘诀</t>
     </r>
@@ -23429,6 +23440,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>酸辣土豆丝｜5分钟速成！脆爽开胃完胜饭店</t>
     </r>
@@ -23459,6 +23471,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>10分钟炫3碗饭！</t>
     </r>
@@ -23478,6 +23491,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>5分钟嫩滑鸡蛋羹！神仙吃法大公开</t>
     </r>
@@ -23505,6 +23519,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>文火淬出江南味</t>
     </r>
@@ -23521,6 +23536,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>婆婆秘方</t>
     </r>
@@ -23537,6 +23553,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>一抿化魂！</t>
     </r>
@@ -23556,6 +23573,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>香到跺脚的口水鸡！手残党逆袭川菜顶流</t>
     </r>
@@ -23583,6 +23601,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>香到邻居砸门的豆角焖面！懒人15分钟</t>
     </r>
@@ -23610,6 +23629,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>秋冬暖心罗宋汤｜私房配方秒杀西餐厅</t>
     </r>
@@ -24276,13 +24296,893 @@
 </t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家人们！！这个冬瓜酿肉我能炫一盘！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>😭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>闷到窒息的夏天就需要这种清爽暴击啊！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冬瓜吸饱肉汁的鲜甜，咬下去直接飙汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键低卡高蛋白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>‼️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减脂姐妹快冲！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+​
+———</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【食材准备】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">———​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冬瓜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>圈｜肉末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>150g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜葱花｜蒜末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万能调料：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勺生抽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半勺蚝油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半勺淀粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胡椒粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+​
+———</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【懒人步骤】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">———​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冬瓜去皮切厚片（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1cm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>左右），中间挖洞备用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肉末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>葱花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒜末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调料，顺时针搅拌到黏糊状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>把肉馅塞进冬瓜圈，摆盘上锅蒸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>4️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出锅淋上蒸出的汤汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热油激香！撒葱花开吃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+​
+———</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【锁鲜秘诀】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">———​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚠️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冬瓜别切太薄！蒸完会软塌没口感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肉馅要摔打上劲！蒸出来紧实弹牙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌶️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>爱吃辣加小米椒圈，鲜辣直冲天灵盖！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冷藏后更绝！！冰镇冬瓜配热乎肉馅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三重口感在嘴里疯狂打架啊啊啊！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配杂粮饭就是打工人的完美减脂餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>求你们快去试！！不好吃来打我！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬瓜酿肉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>🍈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冬瓜酿肉｜清爽爆汁低卡绝了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -24329,6 +25229,39 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Apple Color Emoji"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Apple Color Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -24399,7 +25332,9 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -25530,17 +26465,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
     <col min="2" max="2" width="80.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="88.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" style="1" customWidth="1"/>
     <col min="4" max="6" width="10.83203125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -25558,1331 +26493,1344 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>290</v>
+    <row r="2" spans="1:5" ht="13" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>308</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>303</v>
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="25.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="25.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="25.5" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="25.5" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="25.5" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="25.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="25.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="25.5" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="25.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="25.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="25.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="25.5" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>301</v>
+        <v>102</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="25.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="25.5" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="25.5" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="25.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" ht="34" customHeight="1">
+    <row r="55" spans="1:5" ht="25.5" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>302</v>
+        <v>146</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="25.5" customHeight="1">
+    <row r="56" spans="1:5" ht="34" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="25.5" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="25.5" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="25.5" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="25.5" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="25.5" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="25.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>305</v>
+        <v>168</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="25.5" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="25.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="25.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="25.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="25.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="25.5" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="25.5" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="25.5" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="25.5" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="25.5" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="25.5" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="25.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="25.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="25.5" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="25.5" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="25.5" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="25.5" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="25.5" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="25.5" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="25.5" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="25.5" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="25.5" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="25.5" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="25.5" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="25.5" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="25.5" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="25.5" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>306</v>
+        <v>288</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="25.5" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>259</v>
+        <v>287</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="25.5" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="25.5" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>285</v>
+        <v>260</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="25.5" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="25.5" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="25.5" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>307</v>
+        <v>283</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="25.5" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="25.5" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="25.5" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="25.5" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A104" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/data/cook-menu.xlsx
+++ b/data/cook-menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhihua/github/public-resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300A63DE-3AEA-3C42-8059-94A601A081E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862E161-A612-FB4D-AD76-1E8FA7A6C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
   <si>
     <t>name</t>
   </si>
@@ -25177,12 +25177,938 @@
       <t>🔥</t>
     </r>
   </si>
+  <si>
+    <t>洋葱炒鸡蛋</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是谁还没试过洋葱炒鸡蛋这个下饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜脆洋葱裹着滑嫩蛋香</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随便一炒就香到舔盘子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打工人带饭党快收好这个懒人菜谱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👇🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【食材准备】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋葱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颗（黄洋葱更甜！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸡蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小葱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>根</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生抽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>勺｜蚝油半勺｜盐糖适量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>步出锅秘诀】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋葱切月牙刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（垂直纹路切更脆！怕辣眼可以冷藏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟再切）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸡蛋加半勺水打散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（油热转圈滑炒！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成熟就盛出）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋葱下锅炒至透明边微焦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（中火逼出甜味！加鸡蛋淋酱汁翻炒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒出锅）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【心机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tips</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用猪油炒香到能开店！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加半勺糖是灵魂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>甜咸党锁死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✔️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盖饭拌面夹馒头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>…</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万物皆可搭！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最近每天带饭都用它</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>微波炉叮完更入味</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👩🏻🍳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一学就会的治愈系家常菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厨房小白也能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟复刻米其林味道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲜掉眉毛！上汤娃娃菜巨好喝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥬</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -25263,6 +26189,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -25305,7 +26237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -25334,6 +26266,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26465,10 +27400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -26495,1342 +27430,1355 @@
     </row>
     <row r="2" spans="1:5" ht="13" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>290</v>
+    <row r="3" spans="1:5" ht="13" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>308</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>303</v>
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="25.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="25.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="25.5" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="25.5" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="25.5" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="25.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="25.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="25.5" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="25.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="25.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="25.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="25.5" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>301</v>
+        <v>102</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="25.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="25.5" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="25.5" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="25.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="25.5" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
-    <row r="56" spans="1:5" ht="34" customHeight="1">
+    <row r="56" spans="1:5" ht="25.5" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>302</v>
+        <v>146</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="25.5" customHeight="1">
+    <row r="57" spans="1:5" ht="34" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="25.5" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="25.5" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="25.5" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="25.5" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="25.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="25.5" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>305</v>
+        <v>168</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="25.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="25.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="25.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="25.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="25.5" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="25.5" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="25.5" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="25.5" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="25.5" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="25.5" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="25.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="25.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="25.5" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="25.5" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="25.5" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="25.5" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="25.5" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="25.5" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="25.5" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="25.5" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="25.5" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="25.5" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="25.5" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="25.5" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="25.5" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="25.5" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="25.5" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>306</v>
+        <v>288</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="25.5" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>259</v>
+        <v>287</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="25.5" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="25.5" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>285</v>
+        <v>260</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="25.5" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="25.5" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="25.5" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>307</v>
+        <v>283</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="25.5" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>271</v>
+        <v>282</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="25.5" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="25.5" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="25.5" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A105" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/data/cook-menu.xlsx
+++ b/data/cook-menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhihua/github/public-resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C862E161-A612-FB4D-AD76-1E8FA7A6C27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465992E-A7F5-A84F-BA12-5BCD1F9BC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t>name</t>
   </si>
@@ -26100,6 +26100,2074 @@
         <family val="2"/>
       </rPr>
       <t>🥬</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋葱炒蛋香迷糊！懒人必学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟神菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>上汤娃娃菜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家人们谁懂啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">‼️​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这碗上汤娃娃菜直接鲜到天灵盖！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>奶白浓汤裹着脆嫩菜心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>吸饱汤汁的皮蛋火腿香到跺脚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减脂期连喝三碗都不带负罪感</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键做法简单到离谱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👇🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+​
+▪️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>食材准备（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人份）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃娃菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颗竖切四瓣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>皮蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颗切丁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火腿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>午餐肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>切丁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒜片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>姜丝爆香</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咸蛋黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颗（鲜味灵魂！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>▪️㊙️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三步鲜到跺脚秘诀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热锅喷油</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蒜姜炒香后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下皮蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火腿丁炒到焦香</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">‼️​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（皮蛋煎出虎皮更绝）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加滚水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大火冲开瞬间变奶白汤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丢咸蛋黄搅散</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鲜味直接翻倍！！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃娃菜铺进砂锅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浇上浓汤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盖盖焖煮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⏳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>出锅撒枸杞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>相信我！！这汤比肉还香</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>娃娃菜吸满皮蛋火腿的咸鲜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咬一口直接爆汁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤底带着淡淡奶香完全不腻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厨房小白也能轻松</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米其林同款鲜味</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👩🍳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小贴士</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+▫️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减脂姐妹用低脂火腿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>少油版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热量直降</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>照样鲜到舔碗！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+▫️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有高汤用浓汤宝半块替代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>偷懒也能鲜到打鸣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🐔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+▫️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加把粉丝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魔芋结秒变豪华版</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​
+​
+#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减脂餐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家常菜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小红书爆款美食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宿舍做饭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>懒人食谱</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖喱肥牛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖喱肥牛饭｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟香迷糊懒人必学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💥</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝子们！发现了一款闭眼做都好吃的懒人料理！咖喱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛这对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁死好吗！！浓稠的酱汁裹着米饭，肥牛嫩到爆汁，一口下去直接香迷糊～重点是不用焯水不用炒糖色，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟搞定一锅端！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【食材准备】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>200g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜土豆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个｜胡萝卜半根｜洋葱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜咖喱块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块｜牛奶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（灵魂关键！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【暴风吸入步骤】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛焯水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒捞出（去腥不柴的秘诀！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋葱爆香</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加土豆胡萝卜丁翻炒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>300ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热水煮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟，筷子能戳透土豆就行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>4️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放咖喱块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牛奶！！（加牛奶真的会变丝滑！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>5️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小火咕嘟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟让汤汁浓稠，关火撒芝麻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【私藏小技巧】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用椰奶代替牛奶更东南亚！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加半勺花生酱香浓度翻倍！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖喱块选辣度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，层次感绝了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>留点汤汁拌饭！信我你会舔碗底！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖喱控一定要锁死这个配方！零失败还巨下饭，打工人的续命晚餐妥妥拿捏了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -27400,10 +29468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -27430,1355 +29498,1381 @@
     </row>
     <row r="2" spans="1:5" ht="13" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>314</v>
+        <v>320</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="13" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>311</v>
+        <v>317</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>290</v>
+    <row r="4" spans="1:5" ht="13" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>315</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>291</v>
+    <row r="5" spans="1:5" ht="13" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>308</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="25.5" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="25.5" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="25.5" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="25.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="25.5" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="25.5" customHeight="1">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="25.5" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="25.5" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>303</v>
+        <v>46</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="25.5" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="25.5" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="25.5" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="25.5" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="25.5" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="25.5" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="25.5" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="25.5" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="25.5" customHeight="1">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="25.5" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="25.5" customHeight="1">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="25.5" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="25.5" customHeight="1">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="25.5" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="25.5" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="25.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="25.5" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>301</v>
+        <v>99</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="25.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="25.5" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="25.5" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="25.5" customHeight="1">
       <c r="A46" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="25.5" customHeight="1">
       <c r="A47" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="25.5" customHeight="1">
       <c r="A48" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" ht="25.5" customHeight="1">
       <c r="A49" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" ht="25.5" customHeight="1">
       <c r="A50" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" ht="25.5" customHeight="1">
       <c r="A51" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" ht="25.5" customHeight="1">
       <c r="A52" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" ht="25.5" customHeight="1">
       <c r="A53" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" ht="25.5" customHeight="1">
       <c r="A54" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" ht="25.5" customHeight="1">
       <c r="A55" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" ht="25.5" customHeight="1">
       <c r="A56" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="34" customHeight="1">
+    <row r="57" spans="1:5" ht="25.5" customHeight="1">
       <c r="A57" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>302</v>
+        <v>143</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="25.5" customHeight="1">
       <c r="A58" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>304</v>
+        <v>146</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="25.5" customHeight="1">
+    <row r="59" spans="1:5" ht="34" customHeight="1">
       <c r="A59" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="25.5" customHeight="1">
       <c r="A60" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>304</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="25.5" customHeight="1">
       <c r="A61" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="25.5" customHeight="1">
       <c r="A62" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="25.5" customHeight="1">
       <c r="A63" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="25.5" customHeight="1">
       <c r="A64" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="25.5" customHeight="1">
       <c r="A65" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>305</v>
+        <v>165</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="25.5" customHeight="1">
       <c r="A66" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="25.5" customHeight="1">
       <c r="A67" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="25.5" customHeight="1">
       <c r="A68" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="25.5" customHeight="1">
       <c r="A69" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="25.5" customHeight="1">
       <c r="A70" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="25.5" customHeight="1">
       <c r="A71" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="25.5" customHeight="1">
       <c r="A72" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="25.5" customHeight="1">
       <c r="A73" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="25.5" customHeight="1">
       <c r="A74" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="25.5" customHeight="1">
       <c r="A75" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1">
       <c r="A76" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="25.5" customHeight="1">
       <c r="A77" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="25.5" customHeight="1">
       <c r="A78" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="25.5" customHeight="1">
       <c r="A79" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="25.5" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="25.5" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="25.5" customHeight="1">
       <c r="A82" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="25.5" customHeight="1">
       <c r="A83" s="5" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="25.5" customHeight="1">
       <c r="A84" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="25.5" customHeight="1">
       <c r="A85" s="5" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="25.5" customHeight="1">
       <c r="A86" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="25.5" customHeight="1">
       <c r="A87" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="25.5" customHeight="1">
       <c r="A88" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="25.5" customHeight="1">
       <c r="A89" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="25.5" customHeight="1">
       <c r="A90" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" ht="25.5" customHeight="1">
       <c r="A91" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5" ht="25.5" customHeight="1">
       <c r="A92" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" ht="25.5" customHeight="1">
       <c r="A93" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>289</v>
+        <v>247</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="25.5" customHeight="1">
       <c r="A94" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>251</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5" ht="25.5" customHeight="1">
       <c r="A95" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>306</v>
+        <v>289</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5" ht="25.5" customHeight="1">
       <c r="A96" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5" ht="25.5" customHeight="1">
       <c r="A97" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>306</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5" ht="25.5" customHeight="1">
       <c r="A98" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5" ht="25.5" customHeight="1">
       <c r="A99" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>284</v>
+        <v>260</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5" ht="25.5" customHeight="1">
       <c r="A100" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5" ht="25.5" customHeight="1">
       <c r="A101" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>307</v>
+        <v>284</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5" ht="25.5" customHeight="1">
       <c r="A102" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" ht="25.5" customHeight="1">
       <c r="A103" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>273</v>
+        <v>282</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>307</v>
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5" ht="25.5" customHeight="1">
       <c r="A104" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5" ht="25.5" customHeight="1">
       <c r="A105" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A106" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A107" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/data/cook-menu.xlsx
+++ b/data/cook-menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhihua/github/public-resource/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465992E-A7F5-A84F-BA12-5BCD1F9BC5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3F389-212C-9844-B41F-F4C523931DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26158,6 +26158,811 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>咖喱肥牛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖喱肥牛饭｜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟香迷糊懒人必学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💥</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝子们！发现了一款闭眼做都好吃的懒人料理！咖喱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛这对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>CP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>锁死好吗！！浓稠的酱汁裹着米饭，肥牛嫩到爆汁，一口下去直接香迷糊～重点是不用焯水不用炒糖色，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟搞定一锅端！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【食材准备】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛卷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>200g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜土豆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个｜胡萝卜半根｜洋葱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>｜咖喱块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>块｜牛奶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>50ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（灵魂关键！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【暴风吸入步骤】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>1️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛焯水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秒捞出（去腥不柴的秘诀！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>2️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洋葱爆香</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🔥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加土豆胡萝卜丁翻炒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>3️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>倒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>300ml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热水煮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟，筷子能戳透土豆就行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>4️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放咖喱块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>肥牛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牛奶！！（加牛奶真的会变丝滑！）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>5️⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小火咕嘟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分钟让汤汁浓稠，关火撒芝麻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>【私藏小技巧】</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用椰奶代替牛奶更东南亚！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加半勺花生酱香浓度翻倍！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖喱块选辣度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，层次感绝了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>留点汤汁拌饭！信我你会舔碗底！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">​
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>✨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>咖喱控一定要锁死这个配方！零失败还巨下饭，打工人的续命晚餐妥妥拿捏了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Apple Color Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>👌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>​</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -27266,899 +28071,6 @@
         <charset val="134"/>
       </rPr>
       <t>魔芋结秒变豪华版</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>​
-​
-#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>减脂餐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家常菜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小红书爆款美食</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宿舍做饭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> #</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>懒人食谱</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>咖喱肥牛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🍛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咖喱肥牛饭｜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟香迷糊懒人必学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>💥</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宝子们！发现了一款闭眼做都好吃的懒人料理！咖喱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肥牛这对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>CP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>锁死好吗！！浓稠的酱汁裹着米饭，肥牛嫩到爆汁，一口下去直接香迷糊～重点是不用焯水不用炒糖色，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟搞定一锅端！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>📝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【食材准备】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肥牛卷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>200g</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｜土豆</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个｜胡萝卜半根｜洋葱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1/4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>｜咖喱块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>块｜牛奶</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>50ml</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（灵魂关键！）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🔥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【暴风吸入步骤】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>1️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肥牛焯水</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒捞出（去腥不柴的秘诀！）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>2️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洋葱爆香</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🔥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加土豆胡萝卜丁翻炒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>3️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>倒</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>300ml</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>热水煮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟，筷子能戳透土豆就行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>4️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放咖喱块</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肥牛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>牛奶！！（加牛奶真的会变丝滑！）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>5️⃣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小火咕嘟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分钟让汤汁浓稠，关火撒芝麻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>💡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【私藏小技巧】</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用椰奶代替牛奶更东南亚！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加半勺花生酱香浓度翻倍！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咖喱块选辣度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的，层次感绝了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>留点汤汁拌饭！信我你会舔碗底！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">​
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>✨</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咖喱控一定要锁死这个配方！零失败还巨下饭，打工人的续命晚餐妥妥拿捏了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Apple Color Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>👌</t>
     </r>
     <r>
       <rPr>
@@ -29471,7 +29383,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -29498,13 +29410,13 @@
     </row>
     <row r="2" spans="1:5" ht="13" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -29514,7 +29426,7 @@
         <v>316</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>314</v>
